--- a/컴퓨존 제품 목록.xlsx
+++ b/컴퓨존 제품 목록.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[메디니스] 좌우방향 페달 계단오르기 운동기구 스텝퍼  MH-60</t>
+          <t>[Autodesk] AutoCAD LT [기업용/라이선스] [1년사용][갱신]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>89,000</t>
+          <t>701,250</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[HP] 엔비 x360 13-ay1071AU R7-5800U (16GB / 512GB / Win11Home) [기본제품]</t>
+          <t>[GstarCAD] GstarCAD 2022 Standard 지스타캐드 스탠다드 [기업용/라이선스/한글]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,389,000</t>
+          <t>1,089,000</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[HP] 14s-fq1067AU R5-5500U (8GB / 256GB  / Win11Home) [기본제품]</t>
+          <t>[GstarCAD] GstarCAD 2022 Professional 지스타캐드 프로페셔널 [기업용/라이선스/한글]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>599,000</t>
+          <t>1,475,000</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 14-ec0028AU R3-5300U (8GB / 256GB / FD) [기본제품]</t>
+          <t>[Movavi] Video Editor Plus 2022 모바비 비디오 에디터 플러스 [개인(가정)용/ESD/영구버전]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>569,000</t>
+          <t>59,130</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[HP] 오멘 17-ck0068TX i9-11900H (32GB / 1TB / RTX 3080 / Win11Home) [기본제품]</t>
+          <t>[모두솔루션]GstarCAD 2021 Mechanical Network지스타캐드 메카니칼 네트워크[기업용/라이선스/한글/5copy]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,999,000</t>
+          <t>2,016,250</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[HP] 470 G8 4J8P6PC i7-1165G7 (8GB / 512GB / MX450 / FD) [1TB (HDD) 추가]</t>
+          <t>[GstarCAD]GstarCAD 2022Professional Network지스타캐드 프로페셔널네트워크[기업용/라이선스/한글/5copy]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,213,000</t>
+          <t>1,557,500</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[HP] 470 G8 4J8P6PC i7-1165G7 (8GB / 512GB / MX450 / FD) [32GB RAM 구성(총16GBx2)]</t>
+          <t>[Adobe] Photoshop for teams [기업용/라이선스/1년사용] [50개~99개 구매시(1개당 가격)]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,338,000</t>
+          <t>591,250</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[HP]프로북 455 G7-3Q055PA R7-4700U (8GB / 256GB / FD) [512GB (NVME SSD) 교체]</t>
+          <t>[GstarCAD]GstarCAD 2022 Standard Network지스타캐드 스탠다드 네트워크[기업용/라이선스/한글/5copy이상]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>745,000</t>
+          <t>1,171,500</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[HP] 엘리트 드래곤플라이 G2 3E2Q4PA LTE i7-1165G7 (16GB /1TB / Win10Pro) UHD LTE [기본제품]</t>
+          <t>[Cyberlink] PowerDirector 19 Ultra (파워디렉터 19 울트라) [교육용/라이선스/5개이상 구매가능]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2,198,990</t>
+          <t>121,250</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[HP] 15s-eq1158AU R7-4700U (8GB /512GB / Win10Home) [32GB RAM 구성(16GBx2) ＋ 1TB(SSD)교체]</t>
+          <t>[Cyberlink]PowerDirector 19 Ultimate (파워디렉터 19 얼티밋) [교육용/라이선스/5개이상 구매가능]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1,099,000</t>
+          <t>151,250</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[HP] 250 G8-4F2T0PA N4020 (4GB / 128GB / Win10Pro) [4GB RAM 추가(총8GB)]</t>
+          <t>[메디니스] 좌우방향 페달 계단오르기 운동기구 스텝퍼  MH-60</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>419,000</t>
+          <t>89,000</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[HP] 250 G8 363T5PC Pentium 7505 (8GB / 256GB / FD) [Win10Pro 설치]</t>
+          <t>[HP] 엔비 x360 13-ay1071AU R7-5800U (16GB / 512GB / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>649,000</t>
+          <t>1,389,000</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD) [8GB RAM 추가(8GBx2) ＋ Win10Pro 설치]</t>
+          <t>[HP] 14s-fq1067AU R5-5500U (8GB / 256GB  / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1,249,000</t>
+          <t>599,000</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[HP] 17s-cu0010TU i5-1135G7 (8GB / 256GB / Win10Home) [16GB RAM 교체(8GBx2)＋512GB (SSD)교체]</t>
+          <t>[HP] 파빌리온 14-ec0028AU R3-5300U (8GB / 256GB / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1,005,000</t>
+          <t>569,000</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[HP] Victus 16-e0104AX R7-5800H (16GB / 512GB / RTX 3060 / Win10Home)[32GB RAM(16GBx2)＋512GB NVME]</t>
+          <t>[HP] 오멘 17-ck0068TX i9-11900H (32GB / 1TB / RTX 3080 / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1,879,000</t>
+          <t>3,999,000</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[HP] 엘리트 드래곤플라이 G2  3E2P7PA  (i5-1135G7 /16GB /512GB /Win10Pro) LTE [기본제품]</t>
+          <t>[HP] 470 G8 4J8P6PC i7-1165G7 (8GB / 512GB / MX450 / FD) [1TB (HDD) 추가]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,668,970</t>
+          <t>1,213,000</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[HP] Laptop 17s-cu0017TU i3-1125G4 (4GB / 256GB / FD) [기본제품]</t>
+          <t>[HP] 470 G8 4J8P6PC i7-1165G7 (8GB / 512GB / MX450 / FD) [32GB RAM 구성(총16GBx2)]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>627,700</t>
+          <t>1,338,000</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[HP] 엘리트북 850 G8 1G1Y0AV I7-1165G7 (16GB/ 512GB/ Win10Pro) [32GB RAM 교체(16GBx2)]</t>
+          <t>[HP]프로북 455 G7-3Q055PA R7-4700U (8GB / 256GB / FD) [512GB (NVME SSD) 교체]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1,529,000</t>
+          <t>745,000</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD)[512GB SSD교체＋8GB RAM(8GBx2)＋Win10Pro]</t>
+          <t>[HP] 엘리트 드래곤플라이 G2 3E2Q4PA LTE i7-1165G7 (16GB /1TB / Win10Pro) UHD LTE [기본제품]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1,309,000</t>
+          <t>2,198,990</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[HP] 엔비 x360 15-ed1530TU i7-1165G7 (16GB / 512GB / Win11Home) [기본제품]</t>
+          <t>[HP] 15s-eq1158AU R7-4700U (8GB /512GB / Win10Home) [32GB RAM 구성(16GBx2) ＋ 1TB(SSD)교체]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,449,000</t>
+          <t>1,099,000</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 Aero 13-be1050AU 바르셀로 R7-5825U (16GB / 256GB / FD) [실버] [기본제품]</t>
+          <t>[HP] 250 G8-4F2T0PA N4020 (4GB / 128GB / Win10Pro) [4GB RAM 추가(총8GB)]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,049,000</t>
+          <t>419,000</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[HP] 255 G8-4T9N0PC R5-5500U (8GB / 256GB / Win10Home) [기본제품]</t>
+          <t>[HP] 250 G8 363T5PC Pentium 7505 (8GB / 256GB / FD) [Win10Pro 설치]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>709,000</t>
+          <t>649,000</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[HP] Victus 16-E0214AX  R5-5600H (16GB/ 512GB / RTX 3050Ti /Win11Home) [기본제품]</t>
+          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD) [8GB RAM 추가(8GBx2) ＋ Win10Pro 설치]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,299,000</t>
+          <t>1,249,000</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD)[512GB SSD교체＋8GB RAM(8GBx2)＋1TB HDD추가]</t>
+          <t>[HP] 17s-cu0010TU i5-1135G7 (8GB / 256GB / Win10Home) [16GB RAM 교체(8GBx2)＋512GB (SSD)교체]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1,149,000</t>
+          <t>1,005,000</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[HP] 255 G8-46U33PC R3-5300U (4GB /256GB /FD) [4GB RAM 추가(총8GB) ＋ 1TB(HDD) 추가]</t>
+          <t>[HP] Victus 16-e0104AX R7-5800H (16GB / 512GB / RTX 3060 / Win10Home)[32GB RAM(16GBx2)＋512GB NVME]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>1,879,000</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB / 512GB / RTX 3060 / Win11Home) [512GB(NVMe SSD) 추가]</t>
+          <t>[HP] 엘리트 드래곤플라이 G2  3E2P7PA  (i5-1135G7 /16GB /512GB /Win10Pro) LTE [기본제품]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2,199,000</t>
+          <t>1,668,970</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB/512GB/RTX 3060/Win11Home)[32GB RAM(16GBx2)＋1TB NVMe SSD]</t>
+          <t>[HP] Laptop 17s-cu0017TU i3-1125G4 (4GB / 256GB / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2,479,000</t>
+          <t>627,690</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[HP] 오멘 15-ek1056TX i7-10870H (32GB / 512GB / RTX 3070 / Win11Home) [1TB(NVMe SSD) 추가]</t>
+          <t>[HP] 엘리트북 850 G8 1G1Y0AV I7-1165G7 (16GB/ 512GB/ Win10Pro) [32GB RAM 교체(16GBx2)]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2,249,000</t>
+          <t>1,529,000</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[HP] 엘리트북 845 G8-4E4T8PA R7-5850U (8GB / 512GB / Win10pro) [기본제품]</t>
+          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD)[512GB SSD교체＋8GB RAM(8GBx2)＋Win10Pro]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,379,000</t>
+          <t>1,309,000</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[HP] 240 G8 3N2S8PA i7-1165G7 (8GB / 256GB / Win10Pro) [8GB RAM 추가(총16GB)＋512GB(NVME SSD) 교체]</t>
+          <t>[HP] 엔비 x360 15-ed1530TU i7-1165G7 (16GB / 512GB / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1,089,000</t>
+          <t>1,449,000</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[HP] 프로북 450 G8 2Z8Z9PA i5-1135G7 (8GB / 256GB / Win10Pro)[RAM 총16GB＋512GB NVME SSD교체]</t>
+          <t>[HP] 파빌리온 Aero 13-be1050AU 바르셀로 R7-5825U (16GB / 256GB / FD) [실버] [기본제품]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1,242,000</t>
+          <t>1,049,000</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[HP] 엘리트북 855 G8-4E8B6PA R7-5850U (8GB / 512GB /Win10Pro] [기본제품]</t>
+          <t>[HP] 255 G8-4T9N0PC R5-5500U (8GB / 256GB / Win10Home) [기본제품]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1,379,000</t>
+          <t>709,000</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[HP] 엘리트북 855 G8-4E694PA R5-5650U (8GB / 256GB / Win10Pro [기본제품]</t>
+          <t>[HP] Victus 16-E0214AX  R5-5600H (16GB/ 512GB / RTX 3050Ti /Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1,229,000</t>
+          <t>1,299,000</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [512GB(NVMe SSD)교체]</t>
+          <t>[HP] 470 G8 4J8P3PC i5-1135G7 (8GB / 256GB / MX450 / FD)[512GB SSD교체＋8GB RAM(8GBx2)＋1TB HDD추가]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>929,000</t>
+          <t>1,149,000</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [8GB RAM 추가(총16GB)＋512GB NVMe 교체]</t>
+          <t>[HP] 255 G8-46U33PC R3-5300U (4GB /256GB /FD) [4GB RAM 추가(총8GB) ＋ 1TB(HDD) 추가]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>979,000</t>
+          <t>629,000</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[HP] 오멘 15-ek1053TX i7-10870H(16GB/512GB/RTX 3070/Win11Home)[32GB RAM 구성(16GBx2)＋1TB NVMe SSD]</t>
+          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB / 512GB / RTX 3060 / Win11Home) [512GB(NVMe SSD) 추가]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 15-eh1052AU R3-5300U (8GB / 256GB / FD) [기본제품]</t>
+          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB/512GB/RTX 3060/Win11Home)[32GB RAM(16GBx2)＋1TB NVMe SSD]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>529,000</t>
+          <t>2,479,000</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[HP] 프로북 x360 G435 G7 20Q21PA R5-4500U (8GB / 256GB /FD) [8GB RAM 추가(총16GB)]</t>
+          <t>[HP] 오멘 15-ek1056TX i7-10870H (32GB / 512GB / RTX 3070 / Win11Home) [1TB(NVMe SSD) 추가]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>870,000</t>
+          <t>2,249,000</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[HP] 엔비 15-ep1061TX  i7-11800H (16GB / 512GB / Win11Home) [16GB Ram 추가(총32GB) ＋ 1TB NVME 교체]</t>
+          <t>[HP] 엘리트북 845 G8-4E4T8PA R7-5850U (8GB / 512GB / Win10pro) [기본제품]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1,949,000</t>
+          <t>1,379,000</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[HP] 프로북 635 Aero G7-2Z8Y6PA (8GB / 256GB / FD) [512GB (SSD) 교체]</t>
+          <t>[HP] 240 G8 3N2S8PA i7-1165G7 (8GB / 256GB / Win10Pro) [8GB RAM 추가(총16GB)＋512GB(NVME SSD) 교체]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>869,000</t>
+          <t>1,089,000</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 14-EC0031AU R5-5500U (8GB / 256GB / FD) [512GB (SSD) 교체]</t>
+          <t>[HP] 프로북 450 G8 2Z8Z9PA i5-1135G7 (8GB / 256GB / Win10Pro)[RAM 총16GB＋512GB NVME SSD교체]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>712,950</t>
+          <t>1,242,000</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[HP] 엘리트 드래곤플라이 G2 3E2R8PA i5-1135G7 (16GB /512GB /Win10Pro) ★1TB (SSD) 무상 교체★</t>
+          <t>[HP] 엘리트북 855 G8-4E8B6PA R7-5850U (8GB / 512GB /Win10Pro] [기본제품]</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1,709,000</t>
+          <t>1,379,000</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[HP] 오멘 15-ek1055TX i7-10870H (16GB / 512GB / RTX 3070 / Win11Home) QHD [기본 제품]</t>
+          <t>[HP] 엘리트북 855 G8-4E694PA R5-5650U (8GB / 256GB / Win10Pro [기본제품]</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1,919,000</t>
+          <t>1,229,000</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB / 512GB / RTX 3060 / Win11Home) [기본제품]</t>
+          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [512GB(NVMe SSD)교체]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1,999,000</t>
+          <t>929,000</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[HP] 엘리트 드래곤플라이 G2 3E2P4PA i5-1135G7 (16GB/ 256GB / FD) [Win10Home 설치]</t>
+          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [8GB RAM 추가(총16GB)＋512GB NVMe 교체]</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,617,000</t>
+          <t>979,000</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[HP] 255 G8-46U34PC R5-5500U (8GB /256GB / FD) [8GB RAM 추가 (총16GB)]</t>
+          <t>[HP] 오멘 15-ek1053TX i7-10870H(16GB/512GB/RTX 3070/Win11Home)[32GB RAM 구성(16GBx2)＋1TB NVMe SSD]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>715,000</t>
+          <t>2,199,000</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[HP] 255 G8-46U34PC R5-5500U (8GB /256GB / FD) [8GB RAM 추가(총16GB)＋512GB SSD 교체＋Win10HOME]</t>
+          <t>[HP] 파빌리온 15-eh1052AU R3-5300U (8GB / 256GB / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>969,000</t>
+          <t>529,000</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [기본제품]</t>
+          <t>[HP] 프로북 x360 G435 G7 20Q21PA R5-4500U (8GB / 256GB /FD) [8GB RAM 추가(총16GB)]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>839,000</t>
+          <t>870,000</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[HP] 오멘 16-c0147AX R7-5800H (16GB / 512GB /RTX3070 / Win10Home) [기본제품]</t>
+          <t>[HP] 엔비 15-ep1061TX  i7-11800H (16GB / 512GB / Win11Home) [16GB Ram 추가(총32GB) ＋ 1TB NVME 교체]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1,899,000</t>
+          <t>1,949,000</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[HP] Victus 16-e0141AX R5-5600H (8GB /256GB / RTX3050 / FD) [블루] [기본제품]</t>
+          <t>[HP] 프로북 635 Aero G7-2Z8Y6PA (8GB / 256GB / FD) [512GB (SSD) 교체]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>999,000</t>
+          <t>869,000</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[HP] Laptop 17s-cu0017TU i3-1125G4 (4GB / 256GB / FD) [4GB RAM 추가(총8GB)]</t>
+          <t>[HP] 파빌리온 14-EC0031AU R5-5500U (8GB / 256GB / FD) [512GB (SSD) 교체]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>659,000</t>
+          <t>712,950</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[HP] Victus 16-e0144AX R7-5800H (8GB /256GB / RTX 3050Ti / FD) [기본제품]</t>
+          <t>[HP] 엘리트 드래곤플라이 G2 3E2R8PA i5-1135G7 (16GB /512GB /Win10Pro) ★1TB (SSD) 무상 교체★</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1,099,000</t>
+          <t>1,709,000</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[HP] 250 G8 363U4PC i7-1165G7 (8GB / 256GB /FD) [8GB RAM 추가(총16GB)+2TB (HDD) 추가]</t>
+          <t>[HP] 오멘 15-ek1055TX i7-10870H (16GB / 512GB / RTX 3070 / Win11Home) QHD [기본 제품]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>959,000</t>
+          <t>1,919,000</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[HP] 15s-du1508TU /i3-10110U (4GB /128GB / FD) [8GB RAM 추가(총12GB)]</t>
+          <t>[HP] 엔비 15-ep1062TX i7-11800H (16GB / 512GB / RTX 3060 / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>469,000</t>
+          <t>1,999,000</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[HP] 파빌리온 15-eg0116TX  i7-1165G7  (8GB / 512GB / FD) [8GB RAM 추가(총16GB)]</t>
+          <t>[HP] 엘리트 드래곤플라이 G2 3E2P4PA i5-1135G7 (16GB/ 256GB / FD) [Win10Home 설치]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1,139,000</t>
+          <t>1,617,000</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[HP] 엘리트북 X360 1040 G8-3Z471PA i7-1165G7 (16GB / 512GB / Win10Pro) 터치 LTE [기본제품]</t>
+          <t>[HP] 255 G8-46U34PC R5-5500U (8GB /256GB / FD) [8GB RAM 추가 (총16GB)]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2,049,000</t>
+          <t>715,000</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[레노버] 아이디어패드 SLIM5 PRO 16ACH6 R7-5800H (R7/16G/512G/RTX3050/DOS) [스톰그레이] [기본제품]</t>
+          <t>[HP] 255 G8-46U34PC R5-5500U (8GB /256GB / FD) [8GB RAM 추가(총16GB)＋512GB SSD 교체＋Win10HOME]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1,398,980</t>
+          <t>969,000</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15p IMH 20V3A002KR 1650Ti i5-10300H DOS [512GB (NVMe SSD) 추가 (총1TB)]</t>
+          <t>[HP] 파빌리온 14-ec0001AX R5-5500U (8GB / 256GB / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1,296,000</t>
+          <t>839,000</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15 ITL-20VE00TMKR i5-1135G7 (8GB /256GB / Win11Home) [기본제품]</t>
+          <t>[HP] 오멘 16-c0147AX R7-5800H (16GB / 512GB /RTX3070 / Win10Home) [기본제품]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>879,000</t>
+          <t>1,899,000</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[레노버] LENOVO V14 G2 IJL-82QX0000KR N4500 (4GB /256GB / FD) [기본제품]</t>
+          <t>[HP] Victus 16-e0141AX R5-5600H (8GB /256GB / RTX3050 / FD) [블루] [기본제품]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>359,000</t>
+          <t>999,000</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[레노버] Thinkpad T14 AMD G2 20XKS06H00 R7-5850U (16GB/ 256GB / Win10Pro) [기본제품]</t>
+          <t>[HP] Laptop 17s-cu0017TU i3-1125G4 (4GB / 256GB / FD) [4GB RAM 추가(총8GB)]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1,559,000</t>
+          <t>659,000</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15 G2 ITL-20VEA0NXKR i7-1165G7 (8GB /256GB / MX 450 / FD) [기본제품]</t>
+          <t>[HP] Victus 16-e0144AX R7-5800H (8GB /256GB / RTX 3050Ti / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>999,000</t>
+          <t>1,099,000</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15 ITL-20VE00TJKR i7-1165G7 (8GB / 256GB / Win11Home) [기본제품]</t>
+          <t>[HP] 250 G8 363U4PC i7-1165G7 (8GB / 256GB /FD) [8GB RAM 추가(총16GB)+2TB (HDD) 추가]</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1,029,000</t>
+          <t>959,000</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L0004YKR (R7 5800U/16G/1T/DOS) [기본제품]</t>
+          <t>[HP] 15s-du1508TU /i3-10110U (4GB /128GB / FD) [8GB RAM 추가(총12GB)]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1,569,000</t>
+          <t>469,000</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L0004XKR (R7 5800U/16G/1T/Win11Home) [기본제품]</t>
+          <t>[HP] 파빌리온 15-eg0116TX  i7-1165G7  (8GB / 512GB / FD) [8GB RAM 추가(총16GB)]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1,689,000</t>
+          <t>1,139,000</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[레노버] Thinkpad T14 AMD G2 20XKS06F00 R5-5650U (8GB /256GB /Win10Pro) [기본제품]</t>
+          <t>[HP] 엘리트북 X360 1040 G8-3Z471PA i7-1165G7 (16GB / 512GB / Win10Pro) 터치 LTE [기본제품]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1,409,000</t>
+          <t>2,049,000</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[레노버] LEGION 7 16ACHg R7 3070 Edition 82N60095KR (R7/RTX3070/16G/512G/DOS) [기본제품]</t>
+          <t>[레노버] 아이디어패드 SLIM5 PRO 16ACH6 R7-5800H (R7/16G/512G/RTX3050/DOS) [스톰그레이] [기본제품]</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2,448,990</t>
+          <t>1,398,980</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[레노버] Legion 5i 15ITH6H I5 3050Ti Pro DOS 82JK00FJKR (i5/RTX3050ti/8G/512G/DOS) [기본제품]</t>
+          <t>[레노버] ThinkBook 15p IMH 20V3A002KR 1650Ti i5-10300H DOS [512GB (NVMe SSD) 추가 (총1TB)]</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1,249,000</t>
+          <t>1,296,000</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L00055KR (R5 5600U/16G/512G/DOS) [기본제품]</t>
+          <t>[레노버] ThinkBook 15 ITL-20VE00TMKR i5-1135G7 (8GB /256GB / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1,418,900</t>
+          <t>879,000</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L00054KR (R5 5600U/16G/512G/Win11Home) [기본제품]</t>
+          <t>[레노버] LENOVO V14 G2 IJL-82QX0000KR N4500 (4GB /256GB / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1,539,000</t>
+          <t>359,000</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[레노버] Legion 5i 15ITH6H 82JK0078KR (i5/3050Ti/8G/512G/Win10Home) [기본제품]</t>
+          <t>[레노버] Thinkpad T14 AMD G2 20XKS06H00 R7-5850U (16GB/ 256GB / Win10Pro) [기본제품]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1,358,850</t>
+          <t>1,559,000</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15 G2 ITL 20VEA0NYKR (i5-1135G7/MX450/8G/256G/DOS) [기본제품]</t>
+          <t>[레노버] ThinkBook 15 G2 ITL-20VEA0NXKR i7-1165G7 (8GB /256GB / MX 450 / FD) [기본제품]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>858,990</t>
+          <t>999,000</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[레노버] V14 IGL 82C20007KR N5030 (펜티엄/4GB/128GB/DOS) [250GB NVMe로 교체]</t>
+          <t>[레노버] ThinkBook 15 ITL-20VE00TJKR i7-1165G7 (8GB / 256GB / Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>397,000</t>
+          <t>1,029,000</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[레노버] ThinkPad E14 GEN3-20Y7000SKR (R5/8G/256G/WIN10) [16GB RAM 추가(24GB RAM 구성)＋1TB SSD교체]</t>
+          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L0004YKR (R7 5800U/16G/1T/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1,019,000</t>
+          <t>1,569,000</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[레노버] ThinkPad E15 GEN3-20YG0011KD (R7/8G/256G/DOS) [16G RAM 추가 (24GB RAM 구성) ＋ 1TB SSD교체]</t>
+          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L0004XKR (R7 5800U/16G/1T/Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1,040,000</t>
+          <t>1,689,000</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[레노버]ThinkBook 15 G3 ACL 21A4004PKR R7-5800U(R7/8G/256G/DOS)[16GB RAM추가(총 24GB)]＋[512GB NVMe]</t>
+          <t>[레노버] Thinkpad T14 AMD G2 20XKS06F00 R5-5650U (8GB /256GB /Win10Pro) [기본제품]</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1,078,000</t>
+          <t>1,409,000</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[레노버]ThinkPad L15 GEN2 20X7S00900 R5-5650U(R5/8G/256G/DOS)[RAM 8GB추가＋SSD 512GB교체＋Win10Home]</t>
+          <t>[레노버] LEGION 7 16ACHg R7 3070 Edition 82N60095KR (R7/RTX3070/16G/512G/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1,109,000</t>
+          <t>2,448,990</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>[레노버] 아이디어패드 Slim3-14ARE (R7/8G/256G/Win10Home) [블루] [기본제품]</t>
+          <t>[레노버] Legion 5i 15ITH6H I5 3050Ti Pro DOS 82JK00FJKR (i5/RTX3050ti/8G/512G/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>780,000</t>
+          <t>1,249,000</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[레노버] 아이디어패드 Slim3-14ALC R7 5700U (R7/8G/256G/DOS) [블루] [기본제품]</t>
+          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L00055KR (R5 5600U/16G/512G/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>777,000</t>
+          <t>1,418,900</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[레노버]ThinkBook 14 G3 ACL Cezanne 21A20051KR R7-5800U(R7/256G/Win10)[RAM 총16GB＋NVMe 500GB교체]</t>
+          <t>[레노버] 요가 YOGA Slim7 Carbon 14ACN6 82L00054KR (R5 5600U/16G/512G/Win11Home) [기본제품]</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1,091,000</t>
+          <t>1,539,000</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[레노버] V14 ADA 82C600LMKR R3-3250U (R3/4G/256G/DOS) [기본제품]</t>
+          <t>[레노버] Legion 5i 15ITH6H 82JK0078KR (i5/3050Ti/8G/512G/Win10Home) [기본제품]</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>367,980</t>
+          <t>1,358,850</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[레노버] ThinkPad E15 GEN3-20YG0011KD (R7/8G/256G/DOS) [WIN10 Home 설치＋8G RAM 추가(16GB RAM구성)]</t>
+          <t>[레노버] ThinkBook 15 G2 ITL 20VEA0NYKR (i5-1135G7/MX450/8G/256G/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1,030,000</t>
+          <t>858,990</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15 Gen2 ITL 20VE004PKR i5-1135G7 DOS [기본제품]</t>
+          <t>[레노버] V14 IGL 82C20007KR N5030 (펜티엄/4GB/128GB/DOS) [250GB NVMe로 교체]</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>759,000</t>
+          <t>397,000</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[레노버] V14 ITL Gen2 82KA002JKR i3-1115G4 DOS [RAM 8GB 추가 (총 12GB)]</t>
+          <t>[레노버] ThinkPad E14 GEN3-20Y7000SKR (R5/8G/256G/WIN10) [16GB RAM 추가(24GB RAM 구성)＋1TB SSD교체]</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>474,000</t>
+          <t>1,019,000</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[레노버] ThinkBook 15p IMH 20V3A002KR 1650Ti i5-10300H DOS [16GB RAM 추가 (총32GB)]</t>
+          <t>[레노버] ThinkPad E15 GEN3-20YG0011KD (R7/8G/256G/DOS) [16G RAM 추가 (24GB RAM 구성) ＋ 1TB SSD교체]</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1,296,000</t>
+          <t>1,040,000</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[레노버] 아이디어패드 Slim3-14ITL 5DX 82H7000NKR (i5/4G/256G/DOS) [아틱 그레이] [기본제품]</t>
+          <t>[레노버]ThinkBook 15 G3 ACL 21A4004PKR R7-5800U(R7/8G/256G/DOS)[16GB RAM추가(총 24GB)]＋[512GB NVMe]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>649,000</t>
+          <t>1,078,000</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 갤럭시 북 S LTE NT767XCL-KC58S [머큐리 그레이][기본제품]</t>
+          <t>[레노버]ThinkPad L15 GEN2 20X7S00900 R5-5650U(R5/8G/256G/DOS)[RAM 8GB추가＋SSD 512GB교체＋Win10Home]</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>898,000</t>
+          <t>1,109,000</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDZ-AD1A [퓨어화이트] [기본제품]</t>
+          <t>[레노버] 아이디어패드 Slim3-14ARE (R7/8G/256G/Win10Home) [블루] [기본제품]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>479,000</t>
+          <t>780,000</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 갤럭시북 프로 NT950XDB-K71A [미스틱 블루][기본제품]</t>
+          <t>[레노버] 아이디어패드 Slim3-14ALC R7 5700U (R7/8G/256G/DOS) [블루] [기본제품]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1,619,000</t>
+          <t>777,000</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDA-COZ1 [기본제품] [퓨어화이트]</t>
+          <t>[레노버]ThinkBook 14 G3 ACL Cezanne 21A20051KR R7-5800U(R7/256G/Win10)[RAM 총16GB＋NVMe 500GB교체]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>599,000</t>
+          <t>1,091,000</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDZ-COZ1 [기본제품] [퓨어화이트]</t>
+          <t>[레노버] V14 ADA 82C600LMKR R3-3250U (R3/4G/256G/DOS) [기본제품]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>499,000</t>
+          <t>367,980</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDA-COZ1 [기본제품] [미스틱그레이]</t>
+          <t>[레노버] ThinkPad E15 GEN3-20YG0011KD (R7/8G/256G/DOS) [WIN10 Home 설치＋8G RAM 추가(16GB RAM구성)]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>599,000</t>
+          <t>1,030,000</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[윈텍] 무소음 냉장고 쇼케이스 WC-20D 20리터/16kg</t>
+          <t>[레노버] ThinkBook 15 Gen2 ITL 20VE004PKR i5-1135G7 DOS [기본제품]</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>279,000</t>
+          <t>759,000</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[루컴즈전자] 루컴즈전자 R048K03-S 48L 냉장고</t>
+          <t>[레노버] V14 ITL Gen2 82KA002JKR i3-1115G4 DOS [RAM 8GB 추가 (총 12GB)]</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>135,280</t>
+          <t>474,000</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[루컴즈전자] 루컴즈전자 R10H01-S 106L 냉장고 상냉장 하냉동</t>
+          <t>[레노버] ThinkBook 15p IMH 20V3A002KR 1650Ti i5-10300H DOS [16GB RAM 추가 (총32GB)]</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>239,000</t>
+          <t>1,296,000</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[미디어] Midea 93ℓ 냉장고 MR-93LW1 /소형냉장고 / 화이트 / 93L</t>
+          <t>[레노버] 아이디어패드 Slim3-14ITL 5DX 82H7000NKR (i5/4G/256G/DOS) [아틱 그레이] [기본제품]</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>143,000</t>
+          <t>649,000</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[미디어] Media 50ℓ 냉장고/MR-50LW/화이트/소형/미니냉장고</t>
+          <t>[삼성전자] 삼성 갤럭시 북 S LTE NT767XCL-KC58S [머큐리 그레이][기본제품]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>106,000</t>
+          <t>898,000</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[미디어] Media 87ℓ 냉장고/MR-87LW1/화이트/소형/미니냉장고</t>
+          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDZ-AD1A [퓨어화이트] [기본제품]</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>169,000</t>
+          <t>479,000</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[미디어] Midea 93ℓ 냉장고 MR-93LS1 /소형냉장고 / 실버 / 93L</t>
+          <t>[삼성전자] 삼성 갤럭시북 프로 NT950XDB-K71A [미스틱 블루][기본제품]</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>147,000</t>
+          <t>1,619,000</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[미디어] Media 50ℓ 냉장고/MR-50LS/실버/소형/미니냉장고</t>
+          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDA-COZ1 [기본제품] [퓨어화이트]</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>108,000</t>
+          <t>599,000</t>
         </is>
       </c>
     </row>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[미디어] Media 240ℓ 냉장고/MR-240LW1/화이트/소형냉장고</t>
+          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDZ-COZ1 [기본제품] [퓨어화이트]</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>279,000</t>
+          <t>499,000</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[미디어] Media 157ℓ 냉장고 MR-157LS / 실버 / 소형냉장고</t>
+          <t>[삼성전자] 삼성 노트북 Plus2 NT550XDA-COZ1 [기본제품] [미스틱그레이]</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>224,000</t>
+          <t>599,000</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[미디어] Media 87ℓ 냉장고/MR-87LS1/실버/소형/미니냉장고</t>
+          <t>[윈텍] 무소음 냉장고 쇼케이스 WC-20D 20리터/16kg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>173,000</t>
+          <t>279,000</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[윈텍] 미니쇼케이스 소형냉장고 XC-25D</t>
+          <t>[루컴즈전자] 루컴즈전자 R048K03-S 48L 냉장고</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>259,000</t>
+          <t>135,280</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[윈텍] 터치식 슬러시 냉장/냉동고 SD-30S -21리터-</t>
+          <t>[루컴즈전자] 루컴즈전자 R10H01-S 106L 냉장고 상냉장 하냉동</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>399,000</t>
+          <t>239,000</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[위니아대우] 도어포켓 스마트쿨링 490L 냉장고 EWRB498EMSO</t>
+          <t>[미디어] Midea 93ℓ 냉장고 MR-93LW1 /소형냉장고 / 화이트 / 93L</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>539,000</t>
+          <t>143,000</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[위니아대우] 562L 중형 냉장고 스마트 쿨링 EWRG568EEMPS1</t>
+          <t>[미디어] Media 50ℓ 냉장고/MR-50LW/화이트/소형/미니냉장고</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>629,000</t>
+          <t>106,000</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성전자 RT09K1000WW 일반 냉장고 90L 2문 무료배송/설치</t>
+          <t>[미디어] Media 87ℓ 냉장고/MR-87LW1/화이트/소형/미니냉장고</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>222,000</t>
+          <t>169,000</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성전자 일반형냉장고 RT19T3007GS 203L</t>
+          <t>[미디어] Midea 93ℓ 냉장고 MR-93LS1 /소형냉장고 / 실버 / 93L</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>366,500</t>
+          <t>147,000</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성전자 RT19T3008GS 일반 냉장고 203L 무료배송/설치</t>
+          <t>[미디어] Media 50ℓ 냉장고/MR-50LS/실버/소형/미니냉장고</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>389,000</t>
+          <t>108,000</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[삼성전자] 삼성전자 RT17N1000WW 일반 냉장고 160L 무료배송/설치</t>
+          <t>[미디어] Media 240ℓ 냉장고/MR-240LW1/화이트/소형냉장고</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>299,000</t>
+          <t>279,000</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[미디어] Midea 워터매직큐브 MW-13G1W /통돌이/세탁기/방문설치/13KG</t>
+          <t>[미디어] Media 157ℓ 냉장고 MR-157LS / 실버 / 소형냉장고</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>286,000</t>
+          <t>224,000</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[미디어] 미디어 전자동 세탁기 MW-38G1W 미니세탁기 3.8KG</t>
+          <t>[미디어] Media 87ℓ 냉장고/MR-87LS1/실버/소형/미니냉장고</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>163,000</t>
+          <t>173,000</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[미디어] 미디어 전자동 세탁기 MW-A380W 미니세탁기 3.8KG</t>
+          <t>[윈텍] 미니쇼케이스 소형냉장고 XC-25D</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>158,000</t>
+          <t>259,000</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[미디어] Midea 워터매직큐브 MW-17G1W /통돌이/세탁기/방문설치/17KG</t>
+          <t>[윈텍] 터치식 슬러시 냉장/냉동고 SD-30S -21리터-</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>368,000</t>
+          <t>399,000</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[위니아대우] 스테인리스 세탁조 4D 통돌이 세탁기 14kg WWF14GEG</t>
+          <t>[위니아대우] 도어포켓 스마트쿨링 490L 냉장고 EWRB498EMSO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>349,000</t>
+          <t>539,000</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[위니아대우] 통돌이 공기방울 11kg 세탁기 저소음 EWF11GE1W</t>
+          <t>[위니아대우] 562L 중형 냉장고 스마트 쿨링 EWRG568EEMPS1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>369,000</t>
+          <t>629,000</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[위니아대우] 14Kg 통돌이 세탁기 공기방울 4D 강력 물살 투명도어 EWF14GEW</t>
+          <t>[삼성전자] 삼성전자 RT09K1000WW 일반 냉장고 90L 2문 무료배송/설치</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>339,000</t>
+          <t>222,000</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[위니아대우] 공기방울 통돌이 세탁기 11kg 스타드럼 저소음 EWF11GEW</t>
+          <t>[삼성전자] 삼성전자 일반형냉장고 RT19T3007GS 203L</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>369,000</t>
+          <t>366,500</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[삼성전자] 그랑데 일반형세탁기 WA23A8377KV 23kg</t>
+          <t>[삼성전자] 삼성전자 RT19T3008GS 일반 냉장고 203L 무료배송/설치</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>837,600</t>
+          <t>389,000</t>
         </is>
       </c>
     </row>
